--- a/biology/Zoologie/Arion_subfuscus/Arion_subfuscus.xlsx
+++ b/biology/Zoologie/Arion_subfuscus/Arion_subfuscus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Arion subfuscus, la Loche roussâtre (nom scientifique français officiel depuis 2010), est une espèce de limaces appartenant à la famille des Arionidae.
 </t>
@@ -511,11 +523,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Longueur : 7 à 7,5 cm.
 Description de Louis Germain : animal allongé, corps et bouclier d’un brun assez foncé, jaune, orangé ou châtain, avec une bande noire de chaque côté ; pied blanchâtre bordé de gris clair avec linéoles noires ; mucus jaune plus ou moins vif.
-Son mucus a servi de base d'inspiration à une colle extrêmement résistante et biocompatible aux tissus mouillés comme secs[1].
+Son mucus a servi de base d'inspiration à une colle extrêmement résistante et biocompatible aux tissus mouillés comme secs.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Assez commune presque partout en France métropolitaine, absente de Corse.
 </t>
@@ -575,7 +591,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Louis Germain (1913). Mollusques de la France et des régions voisines, tome deuxième, Gastéropodes pulmonés et prosobranches terrestres et fluviatiles. Octave Doin et fils, étidteurs (Paris).</t>
         </is>
